--- a/code/gsr_data_ugdg.xlsx
+++ b/code/gsr_data_ugdg.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Task-ugdg_Level-Run_gsr_y-info_" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">run</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t>Sub</t>
+  </si>
+  <si>
+    <t>gsr_y</t>
+  </si>
+  <si>
+    <t>tsnr</t>
+  </si>
+  <si>
+    <t>fd_mean</t>
+  </si>
+  <si>
+    <t>run</t>
   </si>
 </sst>
 </file>
@@ -74,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -82,6 +97,7 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -108,11 +124,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,912 +155,912 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.46"/>
+    <col min="1" max="1" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="8.28515625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="7.7109375" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.0175547637045383</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>67.4262237548828</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.182761597370442</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="A2" s="0">
         <v>1003</v>
       </c>
+      <c r="B2" s="0">
+        <v>0.01563513046130538</v>
+      </c>
+      <c r="C2" s="0">
+        <v>56.212167739868164</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.25144324009264046</v>
+      </c>
+      <c r="E2" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.0137154972180724</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>44.9981117248535</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.320124882814839</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1003</v>
+      <c r="A3" s="0">
+        <v>1004</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.044117501005530357</v>
+      </c>
+      <c r="C3" s="0">
+        <v>72.700736999511719</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.13817545196171382</v>
+      </c>
+      <c r="E3" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0439763255417347</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>71.6681442260742</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.133999291334655</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1004</v>
+      <c r="A4" s="0">
+        <v>1006</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.028634419664740562</v>
+      </c>
+      <c r="C4" s="0">
+        <v>52.131492614746094</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.1969467040365831</v>
+      </c>
+      <c r="E4" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.044258676469326</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>73.7333297729492</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.142351612588773</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1004</v>
+      <c r="A5" s="0">
+        <v>1009</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.031174945645034313</v>
+      </c>
+      <c r="C5" s="0">
+        <v>88.038291931152344</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.14199288275498773</v>
+      </c>
+      <c r="E5" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.0287383124232292</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>52.6597671508789</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.215304812890846</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1006</v>
+      <c r="A6" s="0">
+        <v>1010</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.019425199367105961</v>
+      </c>
+      <c r="C6" s="0">
+        <v>38.491100311279297</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.45221114208225788</v>
+      </c>
+      <c r="E6" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.0285305269062519</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>51.6032180786133</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.178588595182321</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1006</v>
+      <c r="A7" s="0">
+        <v>1011</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.019242899492383003</v>
+      </c>
+      <c r="C7" s="0">
+        <v>54.575115203857422</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.29034402741156035</v>
+      </c>
+      <c r="E7" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.0309064853936434</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>93.8282012939453</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.135081618977773</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1009</v>
+      <c r="A8" s="0">
+        <v>1012</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.013499351684004068</v>
+      </c>
+      <c r="C8" s="0">
+        <v>97.950511932373047</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.10585959044798368</v>
+      </c>
+      <c r="E8" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.0314434058964253</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>82.2483825683594</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.148904146532203</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1009</v>
+      <c r="A9" s="0">
+        <v>1013</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.015544538851827383</v>
+      </c>
+      <c r="C9" s="0">
+        <v>103.96672439575195</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.077109872786766537</v>
+      </c>
+      <c r="E9" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.019921712577343</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>32.8124618530273</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.561546882177081</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1010</v>
+      <c r="A10" s="0">
+        <v>1015</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.016638114117085934</v>
+      </c>
+      <c r="C10" s="0">
+        <v>86.940944671630859</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.13087342154013143</v>
+      </c>
+      <c r="E10" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.0189286861568689</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>44.1697387695313</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0.342875401987434</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1010</v>
+      <c r="A11" s="0">
+        <v>1016</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.025948305614292622</v>
+      </c>
+      <c r="C11" s="0">
+        <v>88.597354888916016</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.11286266126248989</v>
+      </c>
+      <c r="E11" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.0198951382189989</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>59.1135978698731</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.222116258664134</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1011</v>
+      <c r="A12" s="0">
+        <v>1019</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.015058784279972315</v>
+      </c>
+      <c r="C12" s="0">
+        <v>67.206125259399414</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.17396474425346731</v>
+      </c>
+      <c r="E12" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.0185906607657671</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>50.0366325378418</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.358571796158987</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1011</v>
+      <c r="A13" s="0">
+        <v>1021</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.014844130724668503</v>
+      </c>
+      <c r="C13" s="0">
+        <v>69.619754791259766</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.19147362337250767</v>
+      </c>
+      <c r="E13" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0.0135904820635915</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>99.1100234985352</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0.104768343483804</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1012</v>
+      <c r="A14" s="0">
+        <v>1242</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.013924284838140011</v>
+      </c>
+      <c r="C14" s="0">
+        <v>82.0145263671875</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.083060721301395357</v>
+      </c>
+      <c r="E14" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.0134082213044167</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>96.7910003662109</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0.106950837412163</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1012</v>
+      <c r="A15" s="0">
+        <v>1243</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.04131714254617691</v>
+      </c>
+      <c r="C15" s="0">
+        <v>69.726165771484375</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.36303157641446931</v>
+      </c>
+      <c r="E15" s="0">
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0.0154294082894921</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>104.460884094238</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0.074124421049925</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1013</v>
+      <c r="A16" s="0">
+        <v>1244</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.031056620180606842</v>
+      </c>
+      <c r="C16" s="0">
+        <v>77.364366738882381</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.23250681164129963</v>
+      </c>
+      <c r="E16" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.0156596694141626</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>103.472564697266</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0.0800953245236082</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1013</v>
+      <c r="A17" s="0">
+        <v>1245</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.020471172407269478</v>
+      </c>
+      <c r="C17" s="0">
+        <v>80.520702362060547</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.09031163338605025</v>
+      </c>
+      <c r="E17" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.0167406480759382</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>85.3355712890625</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.125380315063751</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1015</v>
+      <c r="A18" s="0">
+        <v>1247</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0.026178088039159775</v>
+      </c>
+      <c r="C18" s="0">
+        <v>70.364757537841797</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.22212745036184628</v>
+      </c>
+      <c r="E18" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0.0165355801582336</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>88.5463180541992</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0.136366528016512</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1015</v>
+      <c r="A19" s="0">
+        <v>1248</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.018653536215424538</v>
+      </c>
+      <c r="C19" s="0">
+        <v>90.582904815673828</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0.15075358646144704</v>
+      </c>
+      <c r="E19" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0.0257997158914804</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>87.1680603027344</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0.104527672606115</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1016</v>
+      <c r="A20" s="0">
+        <v>1249</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.022959824651479721</v>
+      </c>
+      <c r="C20" s="0">
+        <v>87.163227081298828</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.14087186638384042</v>
+      </c>
+      <c r="E20" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.0260968953371048</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>90.0266494750977</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0.121197649918865</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1016</v>
+      <c r="A21" s="0">
+        <v>1251</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.022564920596778393</v>
+      </c>
+      <c r="C21" s="0">
+        <v>85.816027486580424</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0.063787340578022378</v>
+      </c>
+      <c r="E21" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0.014701634645462</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>75.5948944091797</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0.163582517985081</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1019</v>
+      <c r="A22" s="0">
+        <v>1253</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.018889372237026691</v>
+      </c>
+      <c r="C22" s="0">
+        <v>79.643699645996094</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0.1104730633898991</v>
+      </c>
+      <c r="E22" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0.0154159339144826</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>58.8173561096191</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>0.184346970521853</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>1019</v>
+      <c r="A23" s="0">
+        <v>1255</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.019855557009577751</v>
+      </c>
+      <c r="C23" s="0">
+        <v>78.471843719482422</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.16802946113793696</v>
+      </c>
+      <c r="E23" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0.0147425159811974</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>64.5002365112305</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0.214926130096867</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>1021</v>
+      <c r="A24" s="0">
+        <v>1276</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.014457009267061949</v>
+      </c>
+      <c r="C24" s="0">
+        <v>98.278031872585416</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.098356198761209684</v>
+      </c>
+      <c r="E24" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0.0149457454681396</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>74.7392730712891</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0.168021116648148</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1021</v>
+      <c r="A25" s="0">
+        <v>1282</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.0084904497489333153</v>
+      </c>
+      <c r="C25" s="0">
+        <v>82.272331237792969</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.1300225788519016</v>
+      </c>
+      <c r="E25" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>0.0177088398486376</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>81.7973022460938</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0.0802994892475352</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1242</v>
+      <c r="A26" s="0">
+        <v>1286</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0.008041138993576169</v>
+      </c>
+      <c r="C26" s="0">
+        <v>82.916721343994141</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.10810785006275167</v>
+      </c>
+      <c r="E26" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0.0101397298276424</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>82.2317504882813</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0.0858219533552555</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>1242</v>
+      <c r="A27" s="0">
+        <v>1294</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.018242867663502693</v>
+      </c>
+      <c r="C27" s="0">
+        <v>78.958019256591797</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0.11062537288586717</v>
+      </c>
+      <c r="E27" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0.0413171425461769</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>69.7261657714844</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0.363031576414469</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>1243</v>
+      <c r="A28" s="0">
+        <v>1300</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.015921307727694511</v>
+      </c>
+      <c r="C28" s="0">
+        <v>62.757583618164062</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0.17559720164460912</v>
+      </c>
+      <c r="E28" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0.0312996618449688</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>75.4665886445437</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0.23582871008439</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>1244</v>
+      <c r="A29" s="0">
+        <v>1301</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0.018289313651621342</v>
+      </c>
+      <c r="C29" s="0">
+        <v>85.214801788330078</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0.20179914448951675</v>
+      </c>
+      <c r="E29" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0.0308135785162449</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>79.2621448332211</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0.229184913198209</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>1244</v>
+      <c r="A30" s="0">
+        <v>1302</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.025217083282768726</v>
+      </c>
+      <c r="C30" s="0">
+        <v>81.968978881835938</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0.11652803255079561</v>
+      </c>
+      <c r="E30" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0.0202393773943186</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>79.8922271728516</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0.0786577620837369</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>1245</v>
+      <c r="A31" s="0">
+        <v>1303</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0.013393748085945845</v>
+      </c>
+      <c r="C31" s="0">
+        <v>69.827299118041992</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.12988973819663979</v>
+      </c>
+      <c r="E31" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0.0207029674202204</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>81.1491775512695</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0.101965504688364</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>1245</v>
+      <c r="A32" s="0">
+        <v>3101</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0.012396685313433409</v>
+      </c>
+      <c r="C32" s="0">
+        <v>70.932924127904698</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0.13913120062421899</v>
+      </c>
+      <c r="E32" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0.0260833911597729</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>73.4286117553711</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0.240634252059719</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1247</v>
+      <c r="A33" s="0">
+        <v>3116</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0.025523113086819649</v>
+      </c>
+      <c r="C33" s="0">
+        <v>84.364002227783203</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0.22599250918787311</v>
+      </c>
+      <c r="E33" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0.0262727849185467</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>67.3009033203125</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0.203620648663974</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>1247</v>
+      <c r="A34" s="0">
+        <v>3122</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0.013945067767053843</v>
+      </c>
+      <c r="C34" s="0">
+        <v>84.69122314453125</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0.084051867118053278</v>
+      </c>
+      <c r="E34" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0.0193640775978565</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>88.990592956543</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0.145261486284916</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1248</v>
+      <c r="A35" s="0">
+        <v>3125</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0.022563417442142963</v>
+      </c>
+      <c r="C35" s="0">
+        <v>56.248022079467773</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0.31496139836935316</v>
+      </c>
+      <c r="E35" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0.0179429948329926</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>92.1752166748047</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0.156245686637978</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>1248</v>
+      <c r="A36" s="0">
+        <v>3140</v>
+      </c>
+      <c r="B36" s="0">
+        <v>0.022508385591208935</v>
+      </c>
+      <c r="C36" s="0">
+        <v>51.918922424316406</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0.23566565248781901</v>
+      </c>
+      <c r="E36" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0.0230714213103056</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>83.629768371582</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>0.148491500232952</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>1249</v>
+      <c r="A37" s="0">
+        <v>3143</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0.015438882634043694</v>
+      </c>
+      <c r="C37" s="0">
+        <v>71.773231390165165</v>
+      </c>
+      <c r="D37" s="0">
+        <v>0.093344282658137115</v>
+      </c>
+      <c r="E37" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0.0228482279926539</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>90.6966857910156</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0.133252232534729</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1249</v>
+      <c r="A38" s="0">
+        <v>3152</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0.016405388712882996</v>
+      </c>
+      <c r="C38" s="0">
+        <v>48.718382279388607</v>
+      </c>
+      <c r="D38" s="0">
+        <v>0.32243241101870768</v>
+      </c>
+      <c r="E38" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0.0240863375365734</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>86.2507629394531</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0.0683220979322862</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>1251</v>
+      <c r="A39" s="0">
+        <v>3166</v>
+      </c>
+      <c r="B39" s="0">
+        <v>0.025871763937175274</v>
+      </c>
+      <c r="C39" s="0">
+        <v>79.095943450927734</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0.14690070801997673</v>
+      </c>
+      <c r="E39" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0.0210435036569834</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>85.3812920337077</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0.0592525832237586</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>1251</v>
+      <c r="A40" s="0">
+        <v>3167</v>
+      </c>
+      <c r="B40" s="0">
+        <v>0.024081525392830372</v>
+      </c>
+      <c r="C40" s="0">
+        <v>79.887962341308594</v>
+      </c>
+      <c r="D40" s="0">
+        <v>0.14665941795953677</v>
+      </c>
+      <c r="E40" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0.017758272588253</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>88.0534515380859</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>0.110023762516096</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1253</v>
+      <c r="A41" s="0">
+        <v>3170</v>
+      </c>
+      <c r="B41" s="0">
+        <v>0.011152857914566994</v>
+      </c>
+      <c r="C41" s="0">
+        <v>89.764019012451172</v>
+      </c>
+      <c r="D41" s="0">
+        <v>0.079744237375208568</v>
+      </c>
+      <c r="E41" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0.0200204718858004</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>71.2339477539063</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>0.110922364263702</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1253</v>
+      <c r="A42" s="0">
+        <v>3173</v>
+      </c>
+      <c r="B42" s="0">
+        <v>0.02243981696665287</v>
+      </c>
+      <c r="C42" s="0">
+        <v>75.611476898193359</v>
+      </c>
+      <c r="D42" s="0">
+        <v>0.096213809168852971</v>
+      </c>
+      <c r="E42" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0.0206854157149792</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>74.7110214233399</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>0.165893922758456</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1255</v>
+      <c r="A43" s="0">
+        <v>3176</v>
+      </c>
+      <c r="B43" s="0">
+        <v>0.0153968739323318</v>
+      </c>
+      <c r="C43" s="0">
+        <v>70.608272552490234</v>
+      </c>
+      <c r="D43" s="0">
+        <v>0.23294503185407461</v>
+      </c>
+      <c r="E43" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0.0190256983041763</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>82.232666015625</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>0.170164999517418</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>1255</v>
+      <c r="A44" s="0">
+        <v>3189</v>
+      </c>
+      <c r="B44" s="0">
+        <v>0.016303270123898983</v>
+      </c>
+      <c r="C44" s="0">
+        <v>81.893907561665401</v>
+      </c>
+      <c r="D44" s="0">
+        <v>0.11147265552074644</v>
+      </c>
+      <c r="E44" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0.014241642318666</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>106.000353906304</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>0.0867382324177084</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1276</v>
+      <c r="A45" s="0">
+        <v>3190</v>
+      </c>
+      <c r="B45" s="0">
+        <v>0.022796285338699818</v>
+      </c>
+      <c r="C45" s="0">
+        <v>80.577610016218387</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0.14213932537107798</v>
+      </c>
+      <c r="E45" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>0.0146723762154579</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>90.5557098388672</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0.109974165104711</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1276</v>
+      <c r="A46" s="0">
+        <v>3199</v>
+      </c>
+      <c r="B46" s="0">
+        <v>0.021524641662836075</v>
+      </c>
+      <c r="C46" s="0">
+        <v>45.233282089233398</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0.43519018863805414</v>
+      </c>
+      <c r="E46" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>0.00865508243441582</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>85.083251953125</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>0.109474612997267</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1282</v>
+      <c r="A47" s="0">
+        <v>3200</v>
+      </c>
+      <c r="B47" s="0">
+        <v>0.02832425944507122</v>
+      </c>
+      <c r="C47" s="0">
+        <v>84.111934661865234</v>
+      </c>
+      <c r="D47" s="0">
+        <v>0.14643002949073985</v>
+      </c>
+      <c r="E47" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.00832581706345081</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>79.4614105224609</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>0.150570544706536</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>1282</v>
+      <c r="A48" s="0">
+        <v>3206</v>
+      </c>
+      <c r="B48" s="0">
+        <v>0.0233962032943964</v>
+      </c>
+      <c r="C48" s="0">
+        <v>52.617815017700195</v>
+      </c>
+      <c r="D48" s="0">
+        <v>0.28116975219169066</v>
+      </c>
+      <c r="E48" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0.00712329475209117</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>82.3082580566406</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>0.122993235222192</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>1286</v>
+      <c r="A49" s="0">
+        <v>3210</v>
+      </c>
+      <c r="B49" s="0">
+        <v>0.01056172838434577</v>
+      </c>
+      <c r="C49" s="0">
+        <v>45.920080184936523</v>
+      </c>
+      <c r="D49" s="0">
+        <v>0.26485532183677585</v>
+      </c>
+      <c r="E49" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>0.00895898323506117</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>83.5251846313477</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>0.0932224649033109</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1286</v>
+      <c r="A50" s="0">
+        <v>3212</v>
+      </c>
+      <c r="B50" s="0">
+        <v>0.011162420734763145</v>
+      </c>
+      <c r="C50" s="0">
+        <v>79.897022247314453</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0.077753963600712309</v>
+      </c>
+      <c r="E50" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>0.0170006565749645</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>82.4895706176758</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>0.104395677792327</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>1294</v>
+      <c r="A51" s="0">
+        <v>3218</v>
+      </c>
+      <c r="B51" s="0">
+        <v>0.067532595247030258</v>
+      </c>
+      <c r="C51" s="0">
+        <v>65.200119018554688</v>
+      </c>
+      <c r="D51" s="0">
+        <v>0.12933465403069994</v>
+      </c>
+      <c r="E51" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0.0194850787520409</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>75.4264678955078</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>0.116855067979407</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>1294</v>
+      <c r="A52" s="0">
+        <v>3220</v>
+      </c>
+      <c r="B52" s="0">
+        <v>0.029292188584804535</v>
+      </c>
+      <c r="C52" s="0">
+        <v>64.524564743041992</v>
+      </c>
+      <c r="D52" s="0">
+        <v>0.22553247533943466</v>
+      </c>
+      <c r="E52" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>0.0156304929405451</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>62.3491287231445</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>0.17356773237891</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>1300</v>
+      <c r="A53" s="0">
+        <v>3223</v>
+      </c>
+      <c r="B53" s="0">
+        <v>0.029009006917476654</v>
+      </c>
+      <c r="C53" s="0">
+        <v>35.260984420776367</v>
+      </c>
+      <c r="D53" s="0">
+        <v>0.57259209703026914</v>
+      </c>
+      <c r="E53" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,10 +1931,10 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <headerFooter differentOddEven="false" differentFirst="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
